--- a/workshop/models/01 session/SimData.xlsx
+++ b/workshop/models/01 session/SimData.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Age 0-14</t>
   </si>
   <si>
@@ -34,6 +31,9 @@
   </si>
   <si>
     <t>Age Over 65</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:Y1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -534,19 +534,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
